--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4015284.005124514</v>
+        <v>4009562.39315663</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>198.8193982121842</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>201.7371210167412</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16.88986550434922</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>5.459485109098727</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>262.457357544398</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>1.465802816548453</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>164.6434057527908</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.2526535426571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396208</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.12687015635222</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,7 +1545,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>207.8318987281269</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
-        <v>9.137944811015627</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>80.18380255987312</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>267.1729622295795</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>280.1018306544157</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>48.96729539614774</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>215.6792962094713</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.9441574288104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,13 +3243,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>176.6346336209287</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>32.65289103225357</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>198.0893720875161</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>25.01141625626346</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>218.6097747675225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>117.4128986855874</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>122.4731042248909</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,16 +3954,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>79.45364351769543</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913.7382812066351</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C2" t="n">
-        <v>913.7382812066351</v>
+        <v>1024.022260178525</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>665.7565615717742</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>665.7565615717742</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>254.7706567821667</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.168044149006</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.406258787097</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1677.343371443527</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1677.343371443527</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1303.877613182447</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>913.7382812066351</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="3">
@@ -4418,10 +4418,10 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1148.001136675824</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>737.015231886216</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>319.0514237844029</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,28 +4667,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.4233909876365</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>224.4233909876365</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>224.4233909876365</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>224.4233909876365</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>224.4233909876365</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.4233909876365</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>555.4725825998845</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>555.4725825998845</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,7 +4807,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224074</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2058.446168171012</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1705.677512900898</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1332.211754639818</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>942.0724226640064</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4895,7 +4895,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,25 +5041,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5068,13 +5068,13 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>432.2000540015823</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X13" t="n">
-        <v>709.6864413838521</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y13" t="n">
-        <v>488.8938622403219</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1099.399357643585</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1963.91817329694</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2497.450077968865</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027647</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906984</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5357,34 +5357,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>677.4388247656301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,16 +5439,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1665.596877405204</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1376.494010530848</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1376.494010530848</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1087.076840493887</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>859.0872895958698</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>859.0872895958698</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5509,13 +5509,13 @@
         <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
         <v>1106.569146563073</v>
@@ -5524,19 +5524,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.15366264131</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N17" t="n">
-        <v>3082.932479700092</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.6340846510827</v>
+        <v>511.9395339702917</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6979017231758</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,16 +5676,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1593.833384729591</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1593.833384729591</v>
+        <v>1686.471787084927</v>
       </c>
       <c r="V19" t="n">
-        <v>1593.833384729591</v>
+        <v>1431.78729887904</v>
       </c>
       <c r="W19" t="n">
-        <v>1304.41621469263</v>
+        <v>1142.370128842079</v>
       </c>
       <c r="X19" t="n">
-        <v>1076.426663794613</v>
+        <v>914.3805779440615</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.6340846510827</v>
+        <v>693.5879988005314</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,7 +5752,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
         <v>1106.569146563073</v>
@@ -5764,10 +5764,10 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.758180993044</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3475.4049388504</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C22" t="n">
-        <v>3475.4049388504</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D22" t="n">
-        <v>3475.4049388504</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E22" t="n">
-        <v>3475.4049388504</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.51499135249</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>4213.604238928908</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>4213.604238928908</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>3924.187068891947</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X22" t="n">
-        <v>3696.19751799393</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y22" t="n">
-        <v>3475.4049388504</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,22 +5986,22 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M23" t="n">
-        <v>2782.232616025903</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870721</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.517445238747</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1625.365210147495</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1625.365210147495</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1625.365210147495</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1335.948040110534</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1107.958489212517</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>887.1659100689867</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518747</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.23671557753</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3547.015444596651</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>3378.079261668744</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>3378.079261668744</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>3378.079261668744</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>3231.189314170834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.7687655736</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>3985.665898699243</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>3985.665898699243</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>3767.808023740181</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>3767.808023740181</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>3547.015444596651</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.9693001177193</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>680.9693001177193</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6654,19 +6654,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>908.9588510157366</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>680.9693001177193</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>680.9693001177193</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6703,25 +6703,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1299.085123758011</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>1832.617028429936</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2812.369300656582</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986037</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,34 +6779,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>825.859557377715</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>656.9233744498081</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1274.641687419262</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1274.641687419262</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1046.652136521245</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>825.859557377715</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6940,16 +6940,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6982,7 +6982,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7040,16 +7040,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3312.624700939795</v>
+        <v>761.5165984104578</v>
       </c>
       <c r="C37" t="n">
-        <v>3312.624700939795</v>
+        <v>592.580415482551</v>
       </c>
       <c r="D37" t="n">
-        <v>3162.50806152746</v>
+        <v>442.4637760702152</v>
       </c>
       <c r="E37" t="n">
-        <v>3014.594967945066</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F37" t="n">
-        <v>3014.594967945066</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>3014.594967945066</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>4466.454649746775</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>4266.3643749109</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>4011.679886705013</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W37" t="n">
-        <v>3722.262716668052</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X37" t="n">
-        <v>3494.273165770035</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="Y37" t="n">
-        <v>3494.273165770035</v>
+        <v>943.1650632406976</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1040.987899283236</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1905.506714936591</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2439.038619608516</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2985.817436667298</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7256,10 +7256,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>506.8067350374723</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C40" t="n">
-        <v>506.8067350374723</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1931.079409280195</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1709.312793849721</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W40" t="n">
-        <v>909.2731541783409</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X40" t="n">
-        <v>688.4551998677121</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y40" t="n">
-        <v>688.4551998677121</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L41" t="n">
-        <v>1971.087962216427</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M41" t="n">
-        <v>2949.638265046255</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870722</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107237</v>
@@ -7453,10 +7453,10 @@
         <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7505,25 +7505,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>761.5165984104569</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="C43" t="n">
-        <v>761.5165984104569</v>
+        <v>364.2765614219295</v>
       </c>
       <c r="D43" t="n">
-        <v>611.3999589981212</v>
+        <v>214.1599220095938</v>
       </c>
       <c r="E43" t="n">
-        <v>463.4868654157281</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>316.5969179178177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>316.5969179178177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V43" t="n">
-        <v>1163.957642384227</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.957642384227</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y43" t="n">
-        <v>943.1650632406967</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,7 +7633,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7645,31 +7645,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.420735780953</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3627.217485062987</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>3627.217485062987</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>3477.100845650651</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>3329.187752068258</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4586.365838246547</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>4364.599222816073</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>4284.343017242643</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>4029.658529036757</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>4029.658529036757</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>4029.658529036757</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>3808.865949893227</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>251.7982062376316</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>316.9032015413792</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>353.7642348290863</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>410.4190035206668</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>173.2204606877377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9412,13 +9412,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>285.7011105564202</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>32.86979469803765</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>246.454569480844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M26" t="n">
-        <v>29.61882225792056</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>16.80057335908873</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,16 +10351,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>63.01588120402283</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>315.1679217109319</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>257.901728450118</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>77.35795430877249</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>374.1693948021941</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.7051100255851</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.87775666091028</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
-        <v>210.4110044651536</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>139.3651467162961</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>19.03887597603341</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>30.28035436516519</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>6.110007551197214</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>170.5816538800215</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>70.84370212711966</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>5.671315589401956</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>75.50300970289931</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>113.7810716143156</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>88.12246611809675</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>164.7576090751784</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>7.099880621514643</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>29.02106396098182</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>22.28191068942989</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>206.7581946879175</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>774309.4844296169</v>
+      </c>
+      <c r="F2" t="n">
         <v>774309.4844296171</v>
       </c>
-      <c r="F2" t="n">
-        <v>774309.4844296169</v>
-      </c>
       <c r="G2" t="n">
+        <v>774309.4844296174</v>
+      </c>
+      <c r="H2" t="n">
         <v>774309.4844296171</v>
       </c>
-      <c r="H2" t="n">
-        <v>774309.4844296168</v>
-      </c>
       <c r="I2" t="n">
-        <v>774309.4844296168</v>
+        <v>774309.4844296167</v>
       </c>
       <c r="J2" t="n">
         <v>774309.4844296168</v>
       </c>
       <c r="K2" t="n">
-        <v>774309.4844296167</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="L2" t="n">
-        <v>774309.4844296167</v>
+        <v>774309.4844296171</v>
       </c>
       <c r="M2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="N2" t="n">
         <v>774309.4844296171</v>
       </c>
       <c r="O2" t="n">
-        <v>774309.4844296167</v>
+        <v>774309.4844296172</v>
       </c>
       <c r="P2" t="n">
-        <v>774309.4844296167</v>
+        <v>774309.4844296171</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.686857128</v>
-      </c>
       <c r="E4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="G4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="H4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26450,13 +26450,13 @@
         <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918993</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26490,10 +26490,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740557</v>
+        <v>-55659.91851740578</v>
       </c>
       <c r="C6" t="n">
         <v>534307.9606971388</v>
       </c>
       <c r="D6" t="n">
-        <v>534307.9606971388</v>
+        <v>534307.9606971389</v>
       </c>
       <c r="E6" t="n">
-        <v>-67599.94013669333</v>
+        <v>-68271.89503895135</v>
       </c>
       <c r="F6" t="n">
-        <v>659777.4738567134</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="G6" t="n">
-        <v>659777.4738567135</v>
+        <v>659105.518954456</v>
       </c>
       <c r="H6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="I6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544553</v>
       </c>
       <c r="J6" t="n">
-        <v>483354.2546641203</v>
+        <v>482682.2997618624</v>
       </c>
       <c r="K6" t="n">
-        <v>659777.4738567132</v>
+        <v>659105.5189544555</v>
       </c>
       <c r="L6" t="n">
-        <v>659777.4738567132</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="M6" t="n">
-        <v>530135.1590177687</v>
+        <v>529463.2041155107</v>
       </c>
       <c r="N6" t="n">
-        <v>659777.4738567135</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="O6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544557</v>
       </c>
       <c r="P6" t="n">
-        <v>659777.473856713</v>
+        <v>659105.5189544556</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,13 +26749,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>214.9647718086108</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>14.71119934091664</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>208.8197898846879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>349.2235565115842</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>61.46541521995914</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>144.9681598300207</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>163.1088527173441</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>23.98522015752656</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.3319998094376</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.429578708524912e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3.132040208599624e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32788,10 +32788,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>790.7193220678583</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>654.0944880967799</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>892.685350659313</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230594</v>
+        <v>949.3401193508936</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>681.2734615759571</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>838.0029459693317</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>370.0610812534381</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>798.7564048937555</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M26" t="n">
-        <v>568.5399380881473</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>524.8535742473078</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36855,7 +36855,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>518.605995596355</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37089,10 +37089,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>867.4697571238434</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>595.0930150055185</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
@@ -37563,7 +37563,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>629.6597897216838</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>926.4712302151056</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4009562.39315663</v>
+        <v>4012967.884281078</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>198.8193982121842</v>
+        <v>46.88808196732292</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>262.457357544398</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11.23319003610878</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.6509495310452</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>96.36163317610307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396208</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>91.08064078754647</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>207.8318987281269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>150.4771497629684</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>267.1729622295795</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>36.41670903610036</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>209.567519332071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0466642754499</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,10 +3006,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>16.07545940439557</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>32.65289103225357</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>111.797769202855</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>25.01141625626346</v>
+        <v>24.83054391530784</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>117.4128986855874</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>95.09798706465418</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095781</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4321,22 +4321,22 @@
         <v>254.7706567821667</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1902.75190621448</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="C5" t="n">
-        <v>1533.789389274068</v>
+        <v>1280.02760391216</v>
       </c>
       <c r="D5" t="n">
-        <v>1533.789389274068</v>
+        <v>1280.02760391216</v>
       </c>
       <c r="E5" t="n">
-        <v>1148.001136675824</v>
+        <v>894.2393513139152</v>
       </c>
       <c r="F5" t="n">
-        <v>737.015231886216</v>
+        <v>483.2534465243077</v>
       </c>
       <c r="G5" t="n">
-        <v>319.0514237844029</v>
+        <v>65.28963842249453</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>65.28963842249453</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y5" t="n">
-        <v>2289.351746278601</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001584</v>
@@ -5044,16 +5044,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5068,13 +5068,13 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>578.4172407837245</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C13" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5238,13 +5238,13 @@
         <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.789495593986</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>980.8582847574944</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.0657056139643</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5266,13 +5266,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.9395339702917</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>343.0033510423848</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1686.471787084927</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1431.78729887904</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1142.370128842079</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>914.3805779440615</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>693.5879988005314</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,52 +5752,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.1920047000667</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C22" t="n">
-        <v>211.1920047000667</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D22" t="n">
-        <v>211.1920047000667</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E22" t="n">
-        <v>211.1920047000667</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>211.1920047000667</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>211.1920047000667</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.039769608815</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>841.6225995718539</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>613.6330486738366</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.8404695303064</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1682.725100522031</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,16 +6211,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6256,22 +6256,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6408,25 +6408,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
         <v>277.2094992786341</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,16 +6466,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6715,13 +6715,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>691.980755747597</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>523.0445728196901</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>761.5165984104578</v>
+        <v>506.5178070419668</v>
       </c>
       <c r="C37" t="n">
-        <v>592.580415482551</v>
+        <v>506.5178070419668</v>
       </c>
       <c r="D37" t="n">
-        <v>442.4637760702152</v>
+        <v>356.401167629631</v>
       </c>
       <c r="E37" t="n">
-        <v>409.4810578558177</v>
+        <v>208.4880740472379</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>208.4880740472379</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7128,19 +7128,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V37" t="n">
-        <v>1163.957642384228</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.957642384228</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X37" t="n">
-        <v>1163.957642384228</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="Y37" t="n">
-        <v>943.1650632406976</v>
+        <v>688.1662718722065</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7177,16 +7177,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.6776738607302</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C40" t="n">
-        <v>245.6776738607302</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1931.079409280195</v>
+        <v>1841.431651372022</v>
       </c>
       <c r="T40" t="n">
-        <v>1709.312793849721</v>
+        <v>1619.665035941548</v>
       </c>
       <c r="U40" t="n">
-        <v>1420.209926975365</v>
+        <v>1330.562169067191</v>
       </c>
       <c r="V40" t="n">
-        <v>1165.525438769478</v>
+        <v>1330.562169067191</v>
       </c>
       <c r="W40" t="n">
-        <v>876.1082687325173</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="X40" t="n">
-        <v>648.1187178345</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="Y40" t="n">
-        <v>427.3261386909699</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,16 +7414,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>818.2062848686776</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1682.725100522032</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.2127443498364</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C43" t="n">
-        <v>364.2765614219295</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D43" t="n">
-        <v>214.1599220095938</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U43" t="n">
-        <v>1453.060509258584</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V43" t="n">
-        <v>1453.060509258584</v>
+        <v>1481.351569195295</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.643339221624</v>
+        <v>1191.934399158335</v>
       </c>
       <c r="X43" t="n">
-        <v>935.6537883236062</v>
+        <v>963.9448482603173</v>
       </c>
       <c r="Y43" t="n">
-        <v>714.8612091800761</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094646</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,19 +7830,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W46" t="n">
         <v>725.9916293201816</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>32.86979469803765</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>29.61882225792002</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>315.1679217109319</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>258.6211785616905</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>88.75133939439083</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.87775666091028</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23703,10 +23703,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>68.1075035891264</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>19.03887597603341</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0172536104688</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>30.28035436516519</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>16.14213605696619</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.78531590648736</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>132.5400136138168</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>113.7810716143156</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>54.2280390561732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>164.7576090751784</v>
+        <v>164.9384814161341</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>29.02106396098182</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>157.0396562591738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>105.0742887270129</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="16">
@@ -26316,22 +26316,22 @@
         <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="F2" t="n">
         <v>774309.4844296169</v>
       </c>
-      <c r="F2" t="n">
-        <v>774309.4844296171</v>
-      </c>
       <c r="G2" t="n">
-        <v>774309.4844296174</v>
+        <v>774309.4844296172</v>
       </c>
       <c r="H2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="I2" t="n">
         <v>774309.4844296167</v>
@@ -26340,22 +26340,22 @@
         <v>774309.4844296168</v>
       </c>
       <c r="K2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="L2" t="n">
         <v>774309.4844296169</v>
       </c>
-      <c r="L2" t="n">
-        <v>774309.4844296171</v>
-      </c>
       <c r="M2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="N2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="O2" t="n">
         <v>774309.4844296169</v>
       </c>
-      <c r="N2" t="n">
-        <v>774309.4844296171</v>
-      </c>
-      <c r="O2" t="n">
-        <v>774309.4844296172</v>
-      </c>
       <c r="P2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296167</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
@@ -26441,7 +26441,7 @@
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26459,7 +26459,7 @@
         <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918991</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740578</v>
+        <v>-55659.91851740581</v>
       </c>
       <c r="C6" t="n">
+        <v>534307.960697139</v>
+      </c>
+      <c r="D6" t="n">
         <v>534307.9606971388</v>
       </c>
-      <c r="D6" t="n">
-        <v>534307.9606971389</v>
-      </c>
       <c r="E6" t="n">
-        <v>-68271.89503895135</v>
+        <v>-67667.13562691913</v>
       </c>
       <c r="F6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="G6" t="n">
-        <v>659105.518954456</v>
+        <v>659710.2783664878</v>
       </c>
       <c r="H6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="I6" t="n">
-        <v>659105.5189544553</v>
+        <v>659710.2783664874</v>
       </c>
       <c r="J6" t="n">
-        <v>482682.2997618624</v>
+        <v>483287.0591738945</v>
       </c>
       <c r="K6" t="n">
-        <v>659105.5189544555</v>
+        <v>659710.2783664878</v>
       </c>
       <c r="L6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="M6" t="n">
-        <v>529463.2041155107</v>
+        <v>530067.963527543</v>
       </c>
       <c r="N6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664878</v>
       </c>
       <c r="O6" t="n">
-        <v>659105.5189544557</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="P6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664872</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>214.9647718086108</v>
+        <v>366.8960880534721</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>61.46541521995914</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>140.6981262087525</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.59587156758266</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>55.56968306875818</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752656</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>116.0611043592037</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,13 +32791,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>370.0610812534381</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36834,7 +36834,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>89.2320208001448</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>867.4697571238434</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>766.6741794499098</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
